--- a/src/tests/data/test.xlsx
+++ b/src/tests/data/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daithi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\excel-demo\src\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD55ABF6-8D5D-4B2F-B247-D7FEDFA99AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75B5B6-553E-4BCC-85A3-690A054A4DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC708DE-4001-47E2-8B6C-C8C9589D7C8B}"/>
+    <workbookView xWindow="2535" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{FFC708DE-4001-47E2-8B6C-C8C9589D7C8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Date Entered</t>
+  </si>
+  <si>
+    <t>Last Name</t>
   </si>
 </sst>
 </file>
@@ -428,50 +428,50 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>45</v>
@@ -493,12 +493,12 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>28</v>
@@ -520,12 +520,12 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>46</v>
@@ -547,12 +547,12 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>32</v>
